--- a/biology/Botanique/Astilbe/Astilbe.xlsx
+++ b/biology/Botanique/Astilbe/Astilbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Astilbe regroupe des plantes vivaces à feuillage caduc appartenant à la famille des Saxifragacées
 Dans la partie basse des États-Unis, les espèces préfèrent l’ombre ou la mi-ombre. Au Québec, elles ont plus de succès avec la mi-ombre ou au soleil, pour autant qu'elles soient bien arrosées. 
@@ -514,9 +526,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 nov. 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 nov. 2018) :
 Astilbe biternata
 Astilbe chinensis
 variété Astilbe chinensis var. davidii
@@ -546,7 +560,7 @@
 Astilbe × arendsii
 Astilbe × crispa
 Astilbe sp. Yoshikawa s.n.
-Selon ITIS      (24 nov. 2018)[2] :
+Selon ITIS      (24 nov. 2018) :
 Astilbe biternata (Vent.) Britton ex Kearney
 Astilbe japonica (C. Morren &amp; Decne.) A. Gray</t>
         </is>
